--- a/biology/Zoologie/Doridicola/Doridicola.xlsx
+++ b/biology/Zoologie/Doridicola/Doridicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doridicola est un genre de crustacés copépodes de la famille des Rhynchomolgidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doridicola est un genre de crustacés copépodes de la famille des Rhynchomolgidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'océan Atlantique, l'océan Indien, l'océan Pacifique et l'océan Arctique.
 Les espèces de ce genre sont associées à des cnidaires, des mollusques, des échinodermes ou des annélides.
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 décembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 décembre 2017) :
 Doridicola aculeatus (Humes &amp; Ho, 1968)
 Doridicola agilis Leydig, 1853
 Doridicola antheae Ridley, 1879
@@ -626,7 +642,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Leydig, 1853 : Zoologische Notizen 1. Neuer Schmarotzerkrebse auf einem Weichthier. Zeitschrift fur Wissenschaftliche Zoologie, vol. 4, no 3/4, p. 377-382.</t>
         </is>
